--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsimpson/Desktop/GitHub/IRP-framework/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D95C0-23FF-4A04-A8AA-BFCE1F690591}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC2978-45DB-364B-BC4B-1A54CD8CD145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="743" yWindow="1035" windowWidth="21607" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="1040" windowWidth="23800" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Timestep</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Total quantity</t>
   </si>
   <si>
-    <t>Route</t>
-  </si>
-  <si>
     <t>BUJUMBURA</t>
   </si>
   <si>
@@ -68,12 +65,54 @@
   </si>
   <si>
     <t>['MWUMBA 10(18.0)']</t>
+  </si>
+  <si>
+    <t>MUZIMA</t>
+  </si>
+  <si>
+    <t>MUYUGA</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>6.0002</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>KiloMeters</t>
+  </si>
+  <si>
+    <t>BIKINGI</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to day </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,18 +158,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,151 +490,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6.0019999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="J13" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>7.2510000000000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6.0019999999999998</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>7.2510000000000003</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
